--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -51,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -421,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +452,30 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>https://spelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>contato@spelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,66 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>http://www.emelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>contato@emelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>contato@coteibem.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>http://primac.com.br/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://framartelelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>framartelelevadores@terra.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://continentalelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>continentalelevadores@protonmail.com;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,67 +472,19 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;</t>
+          <t>comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;korman@elevadoreskorman.com.br;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>http://www.emelevadores.com.br/</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@emelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
           <t>contato@coteibem.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>http://primac.com.br/</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>comercial@primac.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>https://framartelelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>framartelelevadores@terra.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>https://continentalelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>continentalelevadores@protonmail.com;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,12 +479,36 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+          <t>http://www.emelevadores.com.br/</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@coteibem.com.br;</t>
+          <t>contato@emelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://continentalelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>continentalelevadores@protonmail.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://framartelelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>framartelelevadores@terra.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -467,48 +467,48 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;korman@elevadoreskorman.com.br;</t>
+          <t>contato@coteibem.com.br;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>http://www.emelevadores.com.br/</t>
+          <t>http://basselevadores.com.br/manutencao-de-elevadores-em-sao-paulo-sp.php</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@emelevadores.com.br;</t>
+          <t>contato@basselevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://continentalelevadores.com.br/</t>
+          <t>https://fonsecaelevadores.com/</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>continentalelevadores@protonmail.com;</t>
+          <t>contato@fonsecaelevadores.com;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://framartelelevadores.com.br/</t>
+          <t>https://retrofitelevadores.com.br/</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>framartelelevadores@terra.com.br;</t>
+          <t>contato@elevadoresretrofit.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,6 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -55,12 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -428,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,66 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>https://spelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>contato@spelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>contato@coteibem.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>http://basselevadores.com.br/manutencao-de-elevadores-em-sao-paulo-sp.php</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>contato@basselevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://fonsecaelevadores.com/</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>contato@fonsecaelevadores.com;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>https://retrofitelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>contato@elevadoresretrofit.com.br;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -51,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -421,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +452,90 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>https://spelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>contato@spelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>http://www.emelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>contato@emelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>contato@coteibem.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://continentalelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>continentalelevadores@protonmail.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>http://primac.com.br/</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,6 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -55,12 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -428,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,90 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>https://spelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>contato@spelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>http://www.emelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>contato@emelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>contato@coteibem.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>https://continentalelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>continentalelevadores@protonmail.com;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>http://primac.com.br/</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>comercial@primac.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>https://retrofitelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>contato@elevadoresretrofit.com.br;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -51,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -421,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +452,78 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>https://spelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>contato@spelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>vendas@elevadoreskorman.com.br;korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>http://www.emelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>contato@emelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>contato@coteibem.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>http://primac.com.br/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,72 +455,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://spelevadores.com.br/</t>
+          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>contato@spelevadores.com.br;</t>
+          <t>emailbit21@gmail.com;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>vendas@elevadoreskorman.com.br;korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>http://www.emelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>contato@emelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
           <t>contato@coteibem.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>http://primac.com.br/</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>comercial@primac.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>https://retrofitelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>contato@elevadoresretrofit.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,12 +455,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>emailbit21@gmail.com;</t>
+          <t>protecaodedados@villarta.com.br;</t>
         </is>
       </c>
     </row>
@@ -473,6 +473,78 @@
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>contato@coteibem.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>https://spelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>contato@spelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>contato@basselevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://elevadoresoiwa.com.br/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>comercial@elevadoresoiwa.com.br;oiwa@elevadoresoiwa.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://www.otis.com/pt/br</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Navigati_ouvidoria@otis.com;ouvidoria@otis.com;Navigati_imprensa@otis.com;cac@otis.com;imprensa@otis.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,12 +455,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>protecaodedados@villarta.com.br;</t>
+          <t>emailbit21@gmail.com;</t>
         </is>
       </c>
     </row>
@@ -491,60 +491,276 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>contato@basselevadores.com.br;</t>
+          <t>protecaodedados@villarta.com.br;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://elevadoresoiwa.com.br/</t>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>comercial@elevadoresoiwa.com.br;oiwa@elevadoresoiwa.com.br;</t>
+          <t>contato@basselevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>https://www.otis.com/pt/br</t>
+          <t>https://elevadoresoiwa.com.br/</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Navigati_ouvidoria@otis.com;ouvidoria@otis.com;Navigati_imprensa@otis.com;cac@otis.com;imprensa@otis.com;</t>
+          <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>https://crel.com.br/</t>
+          <t>https://www.otis.com/pt/br</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>bruno@crel.com.br;</t>
+          <t>Navigati_imprensa@otis.com;Navigati_cac@otis.com;imprensa@otis.com;ouvidoria@otis.com;cac@otis.com;</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>https://condolivre.com.br/gestao-financeira/quanto-cobrar-por-manutencao-de-elevadores/#:~:text=A%20manuten%C3%A7%C3%A3o%20preventiva%20de%20elevadores,e%20da%20complexidade%20do%20equipamento.</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>contato@condolivre.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
           <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.cronoshare.com.br/quanto-custa/manutencao-elevador#:~:text=Atualmente%20a%20manuten%C3%A7%C3%A3o%20de%20um,%24%204.000%20e%20R%24%208.000.</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>cronoshare@cronoshare.com.br;collection@infegy.com|IstellaBot|DeuSu;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>https://www.arsenalelevadores.com.br/instalacao-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>naoinformado@naoinformado.com;arsenal@arsenalelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadorestakaoki.com.br/instalacao-de-elevadores</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@elevadorestakaoki.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>https://dazenelevator.com/pt/how-much-does-a-home-elevator-cost/#:~:text=Ent%C3%A3o%2C%20voc%C3%AA%20quer%20instalar%20um,elevador%20residencial%20%C3%A9%20%249%2C000%20%E2%80%93%20%2460%2C000.</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Info@dazenelevator.com;info@dazenelevator.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.designelevadores.com.br/empresa-de-elevadores-em-sao-paulo.php</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>contato@designelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;korman@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>https://espel.com.br/</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>espel@espel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.monciel.com.br/reforma-de-elevadores-sp.php</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>monciel@monciel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>https://www.polielevadores.com.br/assistencia-tecnica-em-elevadores-em-sp.php</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>seu@email.com;contato@polielevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.gmvelevadores.com.br/hs/elevadores-em-sao-paulo/</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>contato@gmvelevadores.com.br;cropped-favicon@2x-pichi-192x192.png;cropped-favicon@2x-pichi-32x32.png;cropped-favicon@2x-pichi-270x270.png;cropped-favicon@2x-pichi-180x180.png;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.ultronelevadores.com.br/fabrica-elevadores-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>contato@ultronelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>https://europaelevadores.com.br/manutencao-de-elevadores-na-zona-norte/</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>europa@europaelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>https://www.baisarelevadores.com.br/instalacao-de-elevadores-residenciais-na-zona-norte-de-sp</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>baisarelevadores@gmail.com;contato@buscaorganica.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>https://www.flexst.com.br/empresa-manutencao-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>vendas@flexelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>https://www.teamelevadores.com.br/sobre-teamelevadores</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>logo@2x.png;contato@teamelevadores.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,312 +455,108 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
+          <t>https://exame.com/insight/dona-de-us-600-milhoes-em-imoveis-em-sp-goodstorage-planeja-dobrar-atendendo-a-ultima-meia-milha/p</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>emailbit21@gmail.com;</t>
+          <t>comercial@exame.com;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>contato@coteibem.com.br;</t>
+          <t>contato@basselevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://spelevadores.com.br/</t>
+          <t>https://continentalelevadores.com.br/</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@spelevadores.com.br;</t>
+          <t>impallari@gmail.com;team@latofonts.com;continentalelevadores@protonmail.com;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+          <t>https://site.estapar.com.br/novazonaazulsp</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>protecaodedados@villarta.com.br;</t>
+          <t>pdv.zad@estapar.com.br;corporativo.zad@estapar.com.br;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
+          <t>https://framartelelevadores.com.br/</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>contato@basselevadores.com.br;</t>
+          <t>framartelelevadores@terra.com.br;elcio_30@hotmail.com;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>https://elevadoresoiwa.com.br/</t>
+          <t>https://univelelevadores.com.br/</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br;</t>
+          <t>contato@univelelevadores.com.br;comercial@univelelevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>https://www.otis.com/pt/br</t>
+          <t>https://spelevadores.com.br/a-empresa/</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Navigati_imprensa@otis.com;Navigati_cac@otis.com;imprensa@otis.com;ouvidoria@otis.com;cac@otis.com;</t>
+          <t>contato@spelevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>https://condolivre.com.br/gestao-financeira/quanto-cobrar-por-manutencao-de-elevadores/#:~:text=A%20manuten%C3%A7%C3%A3o%20preventiva%20de%20elevadores,e%20da%20complexidade%20do%20equipamento.</t>
+          <t>https://expresso.pt/podcasts/expresso-da-manha/2025-08-26-ensino-superior-o-elevador-social-avariou-e-no-interior-do-pais-comecou-a-descer-em-vez-de-subir-770c7624</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>contato@condolivre.com.br;</t>
+          <t>asrita@expresso.impresa.pt;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>https://crel.com.br/</t>
+          <t>https://revistaquem.globo.com/casa-dos-famosos/noticia/2025/08/virginia-fonseca-mostra-filhos-conhecendo-seu-novo-apartamento-em-sao-paulo.ghtml</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>bruno@crel.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>comercial@primac.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>https://www.cronoshare.com.br/quanto-custa/manutencao-elevador#:~:text=Atualmente%20a%20manuten%C3%A7%C3%A3o%20de%20um,%24%204.000%20e%20R%24%208.000.</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>cronoshare@cronoshare.com.br;collection@infegy.com|IstellaBot|DeuSu;</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>https://www.arsenalelevadores.com.br/instalacao-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>naoinformado@naoinformado.com;arsenal@arsenalelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>https://www.elevadorestakaoki.com.br/instalacao-de-elevadores</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>atendimento@elevadorestakaoki.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>https://dazenelevator.com/pt/how-much-does-a-home-elevator-cost/#:~:text=Ent%C3%A3o%2C%20voc%C3%AA%20quer%20instalar%20um,elevador%20residencial%20%C3%A9%20%249%2C000%20%E2%80%93%20%2460%2C000.</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Info@dazenelevator.com;info@dazenelevator.com;</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>https://www.designelevadores.com.br/empresa-de-elevadores-em-sao-paulo.php</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>contato@designelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;korman@elevadoreskorman.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>https://espel.com.br/</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>espel@espel.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>https://www.monciel.com.br/reforma-de-elevadores-sp.php</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>monciel@monciel.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>https://retrofitelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>contato@elevadoresretrofit.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>https://www.polielevadores.com.br/assistencia-tecnica-em-elevadores-em-sp.php</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>seu@email.com;contato@polielevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>https://www.gmvelevadores.com.br/hs/elevadores-em-sao-paulo/</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>contato@gmvelevadores.com.br;cropped-favicon@2x-pichi-192x192.png;cropped-favicon@2x-pichi-32x32.png;cropped-favicon@2x-pichi-270x270.png;cropped-favicon@2x-pichi-180x180.png;</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>https://www.ultronelevadores.com.br/fabrica-elevadores-sao-paulo</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>contato@ultronelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>https://europaelevadores.com.br/manutencao-de-elevadores-na-zona-norte/</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>europa@europaelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>https://www.baisarelevadores.com.br/instalacao-de-elevadores-residenciais-na-zona-norte-de-sp</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>baisarelevadores@gmail.com;contato@buscaorganica.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>https://www.flexst.com.br/empresa-manutencao-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>vendas@flexelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>https://www.teamelevadores.com.br/sobre-teamelevadores</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>logo@2x.png;contato@teamelevadores.com.br;</t>
+          <t>revista-quem@apps.globoid;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,108 +455,36 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://exame.com/insight/dona-de-us-600-milhoes-em-imoveis-em-sp-goodstorage-planeja-dobrar-atendendo-a-ultima-meia-milha/p</t>
+          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>comercial@exame.com;</t>
+          <t>emailbit21@gmail.com;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>contato@basselevadores.com.br;</t>
+          <t>contato@coteibem.com.br;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://continentalelevadores.com.br/</t>
+          <t>https://villarta.com.br/manutencao-de-elevadores/</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>impallari@gmail.com;team@latofonts.com;continentalelevadores@protonmail.com;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://site.estapar.com.br/novazonaazulsp</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>pdv.zad@estapar.com.br;corporativo.zad@estapar.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>https://framartelelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>framartelelevadores@terra.com.br;elcio_30@hotmail.com;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>https://univelelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>contato@univelelevadores.com.br;comercial@univelelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>https://spelevadores.com.br/a-empresa/</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>contato@spelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>https://expresso.pt/podcasts/expresso-da-manha/2025-08-26-ensino-superior-o-elevador-social-avariou-e-no-interior-do-pais-comecou-a-descer-em-vez-de-subir-770c7624</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>asrita@expresso.impresa.pt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>https://revistaquem.globo.com/casa-dos-famosos/noticia/2025/08/virginia-fonseca-mostra-filhos-conhecendo-seu-novo-apartamento-em-sao-paulo.ghtml</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>revista-quem@apps.globoid;</t>
+          <t>protecaodedados@villarta.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,36 +455,48 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>emailbit21@gmail.com;</t>
+          <t>contato@coteibem.com.br;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+          <t>https://spelevadores.com.br/</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>contato@coteibem.com.br;</t>
+          <t>contato@spelevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://villarta.com.br/manutencao-de-elevadores/</t>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>protecaodedados@villarta.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://elevadoresoiwa.com.br/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,60 +455,612 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>contato@coteibem.com.br;</t>
+          <t>emailbit21@gmail.com;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://spelevadores.com.br/</t>
+          <t>https://condolivre.com.br/gestao-financeira/quanto-cobrar-por-manutencao-de-elevadores/#:~:text=A%20manuten%C3%A7%C3%A3o%20preventiva%20de%20elevadores,e%20da%20complexidade%20do%20equipamento.</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>contato@spelevadores.com.br;</t>
+          <t>contato@condolivre.com.br;flags@2x.png;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>protecaodedados@villarta.com.br;</t>
+          <t>contato@coteibem.com.br;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://crel.com.br/</t>
+          <t>https://spelevadores.com.br/</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>bruno@crel.com.br;</t>
+          <t>contato@spelevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>protecaodedados@villarta.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>contato@basselevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
           <t>https://elevadoresoiwa.com.br/</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.otis.com/pt/br</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>cac@otis.com;navigati_cac@otis.com;imprensa@otis.com;navigati_imprensa@otis.com;ouvidoria@otis.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rayteckelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>rayteck@rayteckelevadores.com.br;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;8c4075d5481d476e945486754f783364@sentry.io;dd0a55ccb8124b9c9d938e3acf41f8aa@sentry.wixpress.com;c183baa23371454f99f417f6616b724d@sentry.wixpress.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>https://nextelevadores.com/</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>hudsonkanegae@gatecubetecnologia.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>https://www.monciel.com.br/empresa-de-elevadores.php</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>monciel@monciel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>https://www.designelevadores.com.br/empresa-de-elevadores-em-sao-paulo.php</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>contato@designelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.econodata.com.br/maiores-empresas/sp-sao-paulo/busca-elevadores</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>20348-featured-260x140@1.5x.jpg;20348-featured-260x140@2x.jpg;20348-featured-260x140@2.5x.jpg;20348-featured-260x140@3x.jpg;20391-featured-260x140@1.5x.jpg;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>korman@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>https://europaelevadores.com.br/manutencao-de-elevadores-em-sp/</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>europa@europaelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.surmonter.com.br/empresa-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>vendas@surmonter.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.hts.com.br/</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>contato@hts.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>https://www.ultronelevadores.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>contato@ultronelevadores.com.br;naoinformado@naoinformado.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.framartelelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>framartelelevadores@terra.com.br;elcio_30@hotmail.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mmelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>orcamentos2@g7elevadores.com.br;comercial2@mmelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.gmvelevadores.com.br/hs/elevadores-em-sao-paulo/</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>cropped-favicon@2x-pichi-32x32.png;cropped-favicon@2x-pichi-192x192.png;cropped-favicon@2x-pichi-180x180.png;cropped-favicon@2x-pichi-270x270.png;contato@gmvelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>https://www.hardee.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>hardee@hardee.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>https://www.tecnewelevadores.com.br/manutencao-de-elevadores-em-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>tecnica@tecnewelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>https://www.arsenalelevadores.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>arsenal@arsenalelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>https://espel.com.br/</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>espel@espel.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>https://atselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>contato@atselevadores.com.br;info@atselevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>https://www.flexst.com.br/empresa-elevadores-escadas-rolantes-sp</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>vendas@flexelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>https://novitaelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>contato@novitaelevadores.com.br;novita@novitaelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>https://rcelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>rcelevadores@hotmail.com;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>http://orionlift.com.br/</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>faleconosco@orionlift.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadorestakaoki.com.br/</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@elevadorestakaoki.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>https://elevatis.com.br/</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>rogerio.teodoro@elevatis.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>https://www.astroselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>contato@astroselevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>https://sselev.com.br/</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>contato@sselev.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>https://basicelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>basic@basicelevadores.com.br;litoral@basicelevadores.com.br;campinas@basicelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoresfavaretto.com.br/</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresfavaretto.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>https://www.polielevadores.com.br/venda-de-elevadores-em-sp.php</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>contato@polielevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>https://elevapro.com.br/</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>20riziarowe@gmail.com;20comercial@elevapro.com.br;comercial@elevapro.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreshertz.com.br/empresa-desmontagem-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>comercial@elevadoreshertz.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>https://www.estiloelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>operacional@estiloelevadores.com.br;engenharia@estiloelevadores.com.br;andrejan.silva@estiloelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>https://elevac.com.br/</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>vendas@elevac.com.br;vendas1@elevac.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>https://rvmanutencao.com.br/</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@rvmanutencao.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mblelevadores.com.br/manutencao-de-elevadores-em-sp.php</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>vendas@mblelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoresupline.com.br/manutencao-elevadores-empresas</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@elevadoresupline.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>https://seciesp.com.br/</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>seciesp@seciesp.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>https://askelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@askelevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>https://acselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>comercial@acselevadores.com.br;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>http://eleribelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>contato@eleribelevadores.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -467,60 +467,60 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://condolivre.com.br/gestao-financeira/quanto-cobrar-por-manutencao-de-elevadores/#:~:text=A%20manuten%C3%A7%C3%A3o%20preventiva%20de%20elevadores,e%20da%20complexidade%20do%20equipamento.</t>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>contato@condolivre.com.br;</t>
+          <t>contato@coteibem.com.br;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+          <t>https://www.arsenalelevadores.com.br/instalacao-elevadores-sp</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@coteibem.com.br;</t>
+          <t>arsenal@arsenalelevadores.com.br;naoinformado@naoinformado.com;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://spelevadores.com.br/</t>
+          <t>https://crel.com.br/</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>contato@spelevadores.com.br;</t>
+          <t>bruno@crel.com.br;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://villarta.com.br/manutencao-de-elevadores/</t>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>protecaodedados@villarta.com.br;</t>
+          <t>contato@basselevadores.com.br;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>https://crel.com.br/</t>
+          <t>https://europaelevadores.com.br/manutencao-de-elevadores-na-zona-norte/</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>bruno@crel.com.br;</t>
+          <t>europa@europaelevadores.com.br;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,66 +464,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>contato@coteibem.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>https://www.arsenalelevadores.com.br/instalacao-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>arsenal@arsenalelevadores.com.br;naoinformado@naoinformado.com;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://crel.com.br/</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>bruno@crel.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>contato@basselevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>https://europaelevadores.com.br/manutencao-de-elevadores-na-zona-norte/</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>europa@europaelevadores.com.br;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,415 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>emailbit21@gmail.com;</t>
+          <t>emailbit21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://condolivre.com.br/gestao-financeira/quanto-cobrar-por-manutencao-de-elevadores/#:~:text=A%20manuten%C3%A7%C3%A3o%20preventiva%20de%20elevadores,e%20da%20complexidade%20do%20equipamento.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>contato@condolivre.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>contato@coteibem.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://spelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>contato@spelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>protecaodedados@villarta.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>contato@basselevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://elevadoresoiwa.com.br/</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.otis.com/pt/br</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>cac@otis.com;navigati_cac@otis.com;imprensa@otis.com;navigati_imprensa@otis.com;ouvidoria@otis.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rayteckelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>rayteck@rayteckelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>https://nextelevadores.com/</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>hudsonkanegae@gatecubetecnologia.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>https://www.monciel.com.br/empresa-de-elevadores.php</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>monciel@monciel.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>https://www.designelevadores.com.br/empresa-de-elevadores-em-sao-paulo.php</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>contato@designelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>korman@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>https://europaelevadores.com.br/manutencao-de-elevadores-em-sp/</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>europa@europaelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>https://www.surmonter.com.br/empresa-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>vendas@surmonter.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.ultronelevadores.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>contato@ultronelevadores.com.br;naoinformado@naoinformado.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.hts.com.br/</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>contato@hts.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>https://www.framartelelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>framartelelevadores@terra.com.br;elcio_30@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mmelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>orcamentos2@g7elevadores.com.br;comercial2@mmelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.gmvelevadores.com.br/hs/elevadores-em-sao-paulo/</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>contato@gmvelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.tecnewelevadores.com.br/manutencao-de-elevadores-em-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>tecnica@tecnewelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>https://www.arsenalelevadores.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>arsenal@arsenalelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>https://espel.com.br/</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>espel@espel.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>https://atselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>contato@atselevadores.com.br;info@atselevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>https://www.flexst.com.br/empresa-elevadores-escadas-rolantes-sp</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>vendas@flexelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>https://novitaelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>contato@novitaelevadores.com.br;novita@novitaelevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>https://rcelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>rcelevadores@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>http://orionlift.com.br/</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>faleconosco@orionlift.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>https://elevatis.com.br/</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>rogerio.teodoro@elevatis.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>https://www.astroselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>contato@astroselevadores.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>https://sselev.com.br/</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>contato@sselev.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadorestakaoki.com.br/</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@elevadorestakaoki.com.br</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,7 @@
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,6 +452,11 @@
           <t>email</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>telefone</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -463,6 +469,11 @@
           <t>emailbit21@gmail.com</t>
         </is>
       </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>(31) 3212-1604;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -475,400 +486,60 @@
           <t>contato@condolivre.com.br</t>
         </is>
       </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3097-9918;(11) 94223-2039;(11) 98084-1487;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://coteibem.sindiconet.com.br/fornecedores/manutencao-elevadores/sp/sao-paulo</t>
+          <t>https://spelevadores.com.br/</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@coteibem.com.br</t>
+          <t>contato@spelevadores.com.br</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2353-5320;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://spelevadores.com.br/</t>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>contato@spelevadores.com.br</t>
+          <t>protecaodedados@villarta.com.br</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3346-8811;(11) 91364-5830;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>protecaodedados@villarta.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>https://www.basselevadores.com.br/elevadores-sao-paulo-sp.php</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
           <t>contato@basselevadores.com.br</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>https://elevadoresoiwa.com.br/</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>https://www.otis.com/pt/br</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>cac@otis.com;navigati_cac@otis.com;imprensa@otis.com;navigati_imprensa@otis.com;ouvidoria@otis.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>comercial@primac.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>https://www.rayteckelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>rayteck@rayteckelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>https://nextelevadores.com/</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>hudsonkanegae@gatecubetecnologia.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>https://www.monciel.com.br/empresa-de-elevadores.php</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>monciel@monciel.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>https://crel.com.br/</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>bruno@crel.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>https://www.designelevadores.com.br/empresa-de-elevadores-em-sao-paulo.php</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>contato@designelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>korman@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>https://europaelevadores.com.br/manutencao-de-elevadores-em-sp/</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>europa@europaelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>https://www.surmonter.com.br/empresa-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>vendas@surmonter.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>https://www.ultronelevadores.com.br/empresas-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>contato@ultronelevadores.com.br;naoinformado@naoinformado.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>https://www.hts.com.br/</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>contato@hts.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>https://www.framartelelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>framartelelevadores@terra.com.br;elcio_30@hotmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mmelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>orcamentos2@g7elevadores.com.br;comercial2@mmelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>https://www.gmvelevadores.com.br/hs/elevadores-em-sao-paulo/</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>contato@gmvelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>https://www.tecnewelevadores.com.br/manutencao-de-elevadores-em-sao-paulo</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>tecnica@tecnewelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>https://www.arsenalelevadores.com.br/empresas-elevadores-sp</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>arsenal@arsenalelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>https://espel.com.br/</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>espel@espel.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>https://atselevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>contato@atselevadores.com.br;info@atselevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>https://www.flexst.com.br/empresa-elevadores-escadas-rolantes-sp</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>vendas@flexelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>https://novitaelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>contato@novitaelevadores.com.br;novita@novitaelevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>https://rcelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>rcelevadores@hotmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>http://orionlift.com.br/</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>faleconosco@orionlift.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>https://elevatis.com.br/</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>rogerio.teodoro@elevatis.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>https://retrofitelevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>contato@elevadoresretrofit.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>https://www.astroselevadores.com.br/</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>contato@astroselevadores.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>https://sselev.com.br/</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>contato@sselev.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>https://www.elevadorestakaoki.com.br/</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>atendimento@elevadorestakaoki.com.br</t>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3934-4855;</t>
         </is>
       </c>
     </row>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>emailbit21@gmail.com</t>
+          <t>emailbit21@gmail.com;</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>contato@condolivre.com.br</t>
+          <t>contato@condolivre.com.br;</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>(11) 3097-9918;(11) 94223-2039;(11) 98084-1487;</t>
+          <t>(11) 98084-1487;(11) 94223-2039;(11) 3097-9918;</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>contato@spelevadores.com.br</t>
+          <t>contato@spelevadores.com.br;</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>protecaodedados@villarta.com.br</t>
+          <t>protecaodedados@villarta.com.br;</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>contato@basselevadores.com.br</t>
+          <t>contato@basselevadores.com.br;</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -542,6 +542,781 @@
           <t>(11) 3934-4855;</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://elevadoresoiwa.com.br/</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>oiwa@elevadoresoiwa.com.br;comercial@elevadoresoiwa.com.br;</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94019-4947;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://www.otis.com/pt/br</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>cac@otis.com;navigati_cac@otis.com;imprensa@otis.com;navigati_imprensa@otis.com;ouvidoria@otis.com;</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.primac.com.br/manutencao-de-elevadores-sp.php</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2942-7479;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rayteckelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>rayteck@rayteckelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3392-5814;(11) 4119-1480;(11) 3392-6569;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>https://nextelevadores.com/</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>hudsonkanegae@gatecubetecnologia.com;</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2578-8000;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.monciel.com.br/empresa-de-elevadores.php</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>monciel@monciel.com.br;</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>(11) 99577-1635;(11) 3312-8800;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br;</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3345-0000;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>https://www.designelevadores.com.br/empresa-de-elevadores-em-sao-paulo.php</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>contato@designelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>(11) 98925-6767;(11) 98152-6822;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>https://europaelevadores.com.br/manutencao-de-elevadores-em-sp/</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>europa@europaelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2893-8695;(12) 4102-1026;(11) 4217-1512;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>korman@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2914-0248;(11) 2914-7506;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.surmonter.com.br/empresa-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>vendas@surmonter.com.br;</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>(11) 95588-5567;(11) 2548-2169;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>https://www.hardee.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>hardee@hardee.com.br;</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3781-1820;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.ultronelevadores.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>contato@ultronelevadores.com.br;naoinformado@naoinformado.com;</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>(19) 4126-0012;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.hts.com.br/</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>contato@hts.com.br;</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>(11) 4070-5580;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>https://www.framartelelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>framartelelevadores@terra.com.br;elcio_30@hotmail.com;</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3326-1254;(11) 95480-1715;(11) 3229-1125;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mmelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>orcamentos2@g7elevadores.com.br;comercial2@mmelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2165-4600;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.gmvelevadores.com.br/hs/elevadores-em-sao-paulo/</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>contato@gmvelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.tecnewelevadores.com.br/manutencao-de-elevadores-em-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>tecnica@tecnewelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3864-6282;(11) 3673-7056;(11) 2942-7179;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>https://www.arsenalelevadores.com.br/empresas-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>arsenal@arsenalelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>(12) 99784-7371;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>https://espel.com.br/</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>espel@espel.com.br;</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>(19) 3233-7199;(19) 97421-9751;(11) 4521-4248;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>https://atselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>contato@atselevadores.com.br;info@atselevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2367-2526;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>https://www.flexst.com.br/empresa-elevadores-escadas-rolantes-sp</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>vendas@flexelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3608-6444;(11) 3608-6437;(11) 97547-9944;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>https://novitaelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>contato@novitaelevadores.com.br;novita@novitaelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>https://rcelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>rcelevadores@hotmail.com;</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>http://orionlift.com.br/</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>faleconosco@orionlift.com.br;</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3864-2006;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br;</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>(11) 98942-8956;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>https://elevatis.com.br/</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>rogerio.teodoro@elevatis.com.br;</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>(11) 5082-4785;(11) 4316-0061;(11) 94121-8398;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>https://www.astroselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>contato@astroselevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2053-5227;(11) 2052-5451;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>https://sselev.com.br/</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>contato@sselev.com.br;</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2155-0539;(11) 93072-5910;(11) 3554-7626;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadorestakaoki.com.br/</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@elevadorestakaoki.com.br;</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3228-1098;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>https://basicelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>basic@basicelevadores.com.br;litoral@basicelevadores.com.br;campinas@basicelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoresfavaretto.com.br/</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresfavaretto.com.br;</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94015-5332;(11) 99721-0292;(11) 4445-2652;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>https://www.polielevadores.com.br/venda-de-elevadores-em-sp.php</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>contato@polielevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94551-3498;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreshertz.com.br/empresa-desmontagem-elevadores-sp</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>comercial@elevadoreshertz.com.br;</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94725-5364;(11) 94796-0222;(11) 2548-5662;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>https://elevapro.com.br/</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>20riziarowe@gmail.com;20comercial@elevapro.com.br;comercial@elevapro.com.br;</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3208-6092;(11) 96481-5993;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>https://www.estiloelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>operacional@estiloelevadores.com.br;engenharia@estiloelevadores.com.br;andrejan.silva@estiloelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94020-0369;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>https://elevac.com.br/</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>vendas@elevac.com.br;vendas1@elevac.com.br;</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>(19) 3441-6414;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoresinfinity.com.br/</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>infinityelevadores@gmail.com;</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>(11) 96081-0996;(11) 95297-4402;(11) 94071-7393;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>https://seciesp.com.br/</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>seciesp@seciesp.com.br;</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>(11) 3214-0201;(11) 94715-2209;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>https://www.athuselevadoreseautomacao.com.br/</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>contato@athuselevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>(11) 95333-7556;(11) 3783-0936;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>https://primeliftelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@primeliftelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>(11) 91592-1195;(11) 5594-0256;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mblelevadores.com.br/elevador-de-carga-em-sp.php</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>vendas@mblelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2503-6155;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>https://acselevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>comercial@acselevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2450-7873;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>https://askelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@askelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2507-3626;(11) 94557-9545;(11) 2507-3628;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>https://rvmanutencao.com.br/</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@rvmanutencao.com.br;</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94076-6731;(11) 3931-8107;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoresupline.com.br/manutencao-elevadores-empresas</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>atendimento@elevadoresupline.com.br;</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>(17) 3212-1804;(17) 98226-0572;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>https://www.cronoshare.com.br/servicos/manutencao-elevadores/sao-paulo/sao-paulo</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>collection@infegy.com;cronoshare@cronoshare.com.br;</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/empresas.xlsx
+++ b/output/empresas.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -51,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -421,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +458,125 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>http://www.emelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>contato@emelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2035-1975;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.elevadoreskorman.com.br/empresas-elevadores-sao-paulo</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>korman@elevadoreskorman.com.br;comercial@elevadoreskorman.com.br;vendas@elevadoreskorman.com.br;</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2914-0248;(11) 2914-7506;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>https://retrofitelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>contato@elevadoresretrofit.com.br;</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>(11) 98942-8956;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>http://primac.com.br/</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br;</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2942-7479;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://iesab.com.br/preco-do-elevador-residencial/#:~:text=M%C3%A9dia%20de%20pre%C3%A7o%20do%20Elevador,comprimento%2C%20menor%20ser%C3%A1%20o%20custo.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>emailbit21@gmail.com;</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>(31) 3212-1604;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>https://spelevadores.com.br/</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>contato@spelevadores.com.br;</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2353-5320;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://villarta.com.br/elevadores-e-escadas-rolantes-villarta/lista-de-empresas-de-elevadores-em-sp/</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>protecaodedados@villarta.com.br;</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>(11) 91364-5830;(11) 3346-8811;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
